--- a/12/2/Índices de volatilidad 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Índices de volatilidad 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>Serie</t>
   </si>
@@ -1160,6 +1160,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C380"/>
+  <dimension ref="A1:C381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5696,8 +5699,22 @@
       <c r="A380" t="s">
         <v>381</v>
       </c>
+      <c r="B380">
+        <v>61.91</v>
+      </c>
       <c r="C380">
         <v>17.6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381">
+        <v>61.47</v>
+      </c>
+      <c r="C381">
+        <v>17.47</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Índices de volatilidad 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Índices de volatilidad 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t>Serie</t>
   </si>
@@ -1163,6 +1163,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:C382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5717,6 +5720,17 @@
         <v>17.47</v>
       </c>
     </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382">
+        <v>56.64</v>
+      </c>
+      <c r="C382">
+        <v>19.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Índices de volatilidad 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Índices de volatilidad 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t>Serie</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C382"/>
+  <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5731,6 +5734,17 @@
         <v>19.82</v>
       </c>
     </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="C383">
+        <v>17.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
